--- a/数据整理/stocks/A股/深证主板/000488-晨鸣纸业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000488-晨鸣纸业.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="149">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,292 +22,445 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>009474</t>
+  </si>
+  <si>
+    <t>005730</t>
+  </si>
+  <si>
+    <t>010611</t>
+  </si>
+  <si>
+    <t>070021</t>
+  </si>
+  <si>
+    <t>000985</t>
+  </si>
+  <si>
+    <t>010612</t>
+  </si>
+  <si>
+    <t>003318</t>
+  </si>
+  <si>
+    <t>005299</t>
+  </si>
+  <si>
+    <t>460009</t>
+  </si>
+  <si>
+    <t>002601</t>
+  </si>
+  <si>
+    <t>002938</t>
+  </si>
+  <si>
+    <t>161715</t>
+  </si>
+  <si>
+    <t>005300</t>
+  </si>
+  <si>
+    <t>011325</t>
+  </si>
+  <si>
+    <t>000916</t>
+  </si>
+  <si>
+    <t>002289</t>
+  </si>
+  <si>
+    <t>006132</t>
+  </si>
+  <si>
+    <t>512260</t>
+  </si>
+  <si>
+    <t>006440</t>
+  </si>
+  <si>
     <t>003717</t>
   </si>
   <si>
+    <t>162907</t>
+  </si>
+  <si>
+    <t>006133</t>
+  </si>
+  <si>
+    <t>006441</t>
+  </si>
+  <si>
+    <t>519117</t>
+  </si>
+  <si>
+    <t>004913</t>
+  </si>
+  <si>
     <t>010484</t>
   </si>
   <si>
-    <t>004913</t>
-  </si>
-  <si>
     <t>004914</t>
   </si>
   <si>
-    <t>003318</t>
-  </si>
-  <si>
-    <t>005299</t>
-  </si>
-  <si>
-    <t>005300</t>
-  </si>
-  <si>
-    <t>005730</t>
-  </si>
-  <si>
-    <t>011325</t>
-  </si>
-  <si>
-    <t>006132</t>
-  </si>
-  <si>
-    <t>006133</t>
-  </si>
-  <si>
-    <t>006440</t>
-  </si>
-  <si>
-    <t>006441</t>
-  </si>
-  <si>
-    <t>000916</t>
-  </si>
-  <si>
-    <t>460009</t>
-  </si>
-  <si>
     <t>010246</t>
   </si>
   <si>
-    <t>000985</t>
-  </si>
-  <si>
-    <t>010611</t>
-  </si>
-  <si>
-    <t>010612</t>
-  </si>
-  <si>
-    <t>512260</t>
-  </si>
-  <si>
-    <t>070021</t>
-  </si>
-  <si>
-    <t>519117</t>
-  </si>
-  <si>
-    <t>002289</t>
-  </si>
-  <si>
-    <t>161715</t>
-  </si>
-  <si>
-    <t>002601</t>
-  </si>
-  <si>
-    <t>002938</t>
-  </si>
-  <si>
-    <t>009474</t>
-  </si>
-  <si>
-    <t>162907</t>
+    <t>国泰致远优势混合</t>
+  </si>
+  <si>
+    <t>国泰江源优势精选灵活配置混合A</t>
+  </si>
+  <si>
+    <t>万家战略发展产业混合A</t>
+  </si>
+  <si>
+    <t>嘉实主题新动力混合</t>
+  </si>
+  <si>
+    <t>嘉实逆向策略股票</t>
+  </si>
+  <si>
+    <t>万家战略发展产业混合C</t>
+  </si>
+  <si>
+    <t>景顺长城中证500行业中性低波动指数</t>
+  </si>
+  <si>
+    <t>万家成长优选灵活配置混合A</t>
+  </si>
+  <si>
+    <t>华泰柏瑞量化先行混合A</t>
+  </si>
+  <si>
+    <t>中银证券价值精选灵活配置混合</t>
+  </si>
+  <si>
+    <t>中银证券健康产业灵活配置混合</t>
+  </si>
+  <si>
+    <t>招商中证大宗商品股票指数（LOF）</t>
+  </si>
+  <si>
+    <t>万家成长优选灵活配置混合C</t>
+  </si>
+  <si>
+    <t>国泰江源优势精选灵活配置混合C</t>
+  </si>
+  <si>
+    <t>前海开源股息率100强等权重股票</t>
+  </si>
+  <si>
+    <t>华商改革创新股票</t>
+  </si>
+  <si>
+    <t>万家智造优势混合A</t>
+  </si>
+  <si>
+    <t>华安中证500行业中性低波动ETF</t>
+  </si>
+  <si>
+    <t>中信建投中证500指数增强A</t>
   </si>
   <si>
     <t>中银量化精选灵活配置混合A</t>
   </si>
   <si>
+    <t>泰信中证锐联基本面400指数（LOF）</t>
+  </si>
+  <si>
+    <t>万家智造优势混合C</t>
+  </si>
+  <si>
+    <t>中信建投中证500指数增强C</t>
+  </si>
+  <si>
+    <t>浦银安盛基本面400指数</t>
+  </si>
+  <si>
+    <t>中银证券聚瑞混合A</t>
+  </si>
+  <si>
     <t>中银量化精选灵活配置混合C</t>
   </si>
   <si>
-    <t>中银证券聚瑞混合A</t>
-  </si>
-  <si>
     <t>中银证券聚瑞混合C</t>
   </si>
   <si>
-    <t>景顺长城中证500行业中性低波动指数</t>
-  </si>
-  <si>
-    <t>万家成长优选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>万家成长优选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>国泰江源优势精选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>国泰江源优势精选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>万家智造优势混合A</t>
-  </si>
-  <si>
-    <t>万家智造优势混合C</t>
-  </si>
-  <si>
-    <t>中信建投中证500指数增强A</t>
-  </si>
-  <si>
-    <t>中信建投中证500指数增强C</t>
-  </si>
-  <si>
-    <t>前海开源股息率100强等权重股票</t>
-  </si>
-  <si>
-    <t>华泰柏瑞量化先行混合A</t>
-  </si>
-  <si>
     <t>华泰柏瑞量化先行混合C</t>
   </si>
   <si>
-    <t>嘉实逆向策略股票</t>
-  </si>
-  <si>
-    <t>万家战略发展产业混合A</t>
-  </si>
-  <si>
-    <t>万家战略发展产业混合C</t>
-  </si>
-  <si>
-    <t>华安中证500行业中性低波动ETF</t>
-  </si>
-  <si>
-    <t>嘉实主题新动力混合</t>
-  </si>
-  <si>
-    <t>浦银安盛基本面400指数</t>
-  </si>
-  <si>
-    <t>华商改革创新股票</t>
-  </si>
-  <si>
-    <t>招商中证大宗商品股票指数（LOF）</t>
-  </si>
-  <si>
-    <t>中银证券价值精选灵活配置混合</t>
-  </si>
-  <si>
-    <t>中银证券健康产业灵活配置混合</t>
-  </si>
-  <si>
-    <t>国泰致远优势混合</t>
-  </si>
-  <si>
-    <t>泰信中证锐联基本面400指数（LOF）</t>
+    <t>44.86</t>
+  </si>
+  <si>
+    <t>38.21</t>
+  </si>
+  <si>
+    <t>32.84</t>
+  </si>
+  <si>
+    <t>13.18</t>
+  </si>
+  <si>
+    <t>7.43</t>
+  </si>
+  <si>
+    <t>10.49</t>
+  </si>
+  <si>
+    <t>14.66</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>6.75</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>77.93</t>
+  </si>
+  <si>
+    <t>78.66</t>
+  </si>
+  <si>
+    <t>56.03</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>93.99</t>
+  </si>
+  <si>
+    <t>94.33</t>
+  </si>
+  <si>
+    <t>93.35</t>
+  </si>
+  <si>
+    <t>91.02</t>
+  </si>
+  <si>
+    <t>93.23</t>
+  </si>
+  <si>
+    <t>90.75</t>
+  </si>
+  <si>
+    <t>94.90</t>
+  </si>
+  <si>
+    <t>93.04</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>93.45</t>
+  </si>
+  <si>
+    <t>98.03</t>
+  </si>
+  <si>
+    <t>94.45</t>
   </si>
   <si>
     <t>93.76</t>
   </si>
   <si>
+    <t>94.72</t>
+  </si>
+  <si>
+    <t>93.51</t>
+  </si>
+  <si>
     <t>27.10</t>
   </si>
   <si>
-    <t>94.33</t>
-  </si>
-  <si>
-    <t>93.35</t>
-  </si>
-  <si>
-    <t>78.66</t>
-  </si>
-  <si>
-    <t>93.45</t>
-  </si>
-  <si>
-    <t>94.45</t>
-  </si>
-  <si>
-    <t>93.04</t>
-  </si>
-  <si>
-    <t>91.02</t>
-  </si>
-  <si>
-    <t>93.99</t>
-  </si>
-  <si>
-    <t>56.03</t>
-  </si>
-  <si>
-    <t>98.03</t>
-  </si>
-  <si>
-    <t>94.00</t>
-  </si>
-  <si>
-    <t>93.51</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>94.90</t>
-  </si>
-  <si>
-    <t>93.23</t>
-  </si>
-  <si>
-    <t>90.75</t>
-  </si>
-  <si>
-    <t>77.93</t>
-  </si>
-  <si>
-    <t>94.72</t>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>4.92</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>5.98</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>0.74</t>
   </si>
   <si>
     <t>1.39</t>
   </si>
   <si>
+    <t>0.75</t>
+  </si>
+  <si>
     <t>2.13</t>
   </si>
   <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>3.62</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>3.79</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>4.92</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>3.89</t>
-  </si>
-  <si>
-    <t>1.63</t>
-  </si>
-  <si>
-    <t>5.98</t>
-  </si>
-  <si>
-    <t>6.10</t>
-  </si>
-  <si>
-    <t>3.72</t>
+    <t>1.6688</t>
+  </si>
+  <si>
+    <t>1.3641</t>
+  </si>
+  <si>
+    <t>0.7159</t>
+  </si>
+  <si>
+    <t>0.6485</t>
+  </si>
+  <si>
+    <t>0.3656</t>
+  </si>
+  <si>
+    <t>0.2287</t>
+  </si>
+  <si>
+    <t>0.1407</t>
+  </si>
+  <si>
+    <t>0.0941</t>
+  </si>
+  <si>
+    <t>0.0634</t>
+  </si>
+  <si>
+    <t>0.0502</t>
+  </si>
+  <si>
+    <t>0.0336</t>
+  </si>
+  <si>
+    <t>0.0333</t>
+  </si>
+  <si>
+    <t>0.0329</t>
+  </si>
+  <si>
+    <t>0.0318</t>
+  </si>
+  <si>
+    <t>0.0289</t>
+  </si>
+  <si>
+    <t>0.0253</t>
+  </si>
+  <si>
+    <t>0.0243</t>
+  </si>
+  <si>
+    <t>0.0137</t>
+  </si>
+  <si>
+    <t>0.0098</t>
+  </si>
+  <si>
+    <t>0.0090</t>
+  </si>
+  <si>
+    <t>0.0042</t>
+  </si>
+  <si>
+    <t>0.0038</t>
+  </si>
+  <si>
+    <t>0.0034</t>
+  </si>
+  <si>
+    <t>0.0020</t>
+  </si>
+  <si>
+    <t>0.0013</t>
   </si>
 </sst>
 </file>
@@ -665,13 +818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,565 +840,730 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>95</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
         <v>88</v>
       </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>105</v>
+      </c>
+      <c r="F25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>106</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>106</v>
+      </c>
+      <c r="F28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000488-晨鸣纸业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000488-晨鸣纸业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1674,4 +1675,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000488-晨鸣纸业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000488-晨鸣纸业.xlsx
@@ -1699,12 +1699,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>
